--- a/data/case1/15/Plm2_13.xlsx
+++ b/data/case1/15/Plm2_13.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.12603137370159345</v>
+        <v>-0.077473474454563984</v>
       </c>
       <c r="B1" s="0">
-        <v>0.12586182250721833</v>
+        <v>0.077347282100561188</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.021422456664064171</v>
+        <v>-0.031235099902573893</v>
       </c>
       <c r="B2" s="0">
-        <v>0.020824106013233035</v>
+        <v>0.03085838360140869</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.082110508376207036</v>
+        <v>0.081157732328303922</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.082441952088856851</v>
+        <v>-0.081398187754935236</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.20155480084820354</v>
+        <v>-0.20259949976977154</v>
       </c>
       <c r="B4" s="0">
-        <v>0.2004323683446394</v>
+        <v>0.20154911804906916</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.19443236849828605</v>
+        <v>-0.19554911819677123</v>
       </c>
       <c r="B5" s="0">
-        <v>0.19216600827847596</v>
+        <v>0.19343050589907129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.097834917958033785</v>
+        <v>-0.11150425371007433</v>
       </c>
       <c r="B6" s="0">
-        <v>0.097695961328984282</v>
+        <v>0.11133175161021791</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.077695961523140511</v>
+        <v>-0.09133175178959263</v>
       </c>
       <c r="B7" s="0">
-        <v>0.077366586159817174</v>
+        <v>0.090898668968018015</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.05736658635613967</v>
+        <v>-0.07089866914952303</v>
       </c>
       <c r="B8" s="0">
-        <v>0.057109600758158408</v>
+        <v>0.070526739018530904</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.062368272699917959</v>
+        <v>-0.06452673917692664</v>
       </c>
       <c r="B9" s="0">
-        <v>0.062035579939021979</v>
+        <v>0.064211777905224032</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.056035580107206329</v>
+        <v>-0.056035714789018698</v>
       </c>
       <c r="B10" s="0">
-        <v>0.055985856923136623</v>
+        <v>0.05598534244858655</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.051485857088145792</v>
+        <v>-0.05148534260686688</v>
       </c>
       <c r="B11" s="0">
-        <v>0.051404504390056616</v>
+        <v>0.051403915744369755</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.045404504559407588</v>
+        <v>-0.045403915905932735</v>
       </c>
       <c r="B12" s="0">
-        <v>0.045155416462394182</v>
+        <v>0.04515529958885578</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.03915541663468769</v>
+        <v>-0.039155299753012685</v>
       </c>
       <c r="B13" s="0">
-        <v>0.039087440819913333</v>
+        <v>0.039087420801925177</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027087441007436652</v>
+        <v>-0.027087420977773391</v>
       </c>
       <c r="B14" s="0">
-        <v>0.027054366311025646</v>
+        <v>0.027054346507985549</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021054366484912101</v>
+        <v>-0.021054346673412994</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021028311631109631</v>
+        <v>0.021028287909079957</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015028311805654671</v>
+        <v>-0.01502828807501766</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004760856678123</v>
+        <v>0.015004798664170593</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090047610320720395</v>
+        <v>-0.0090047988307775384</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999998172149986</v>
+        <v>0.0089999998277496829</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.036111906464771693</v>
+        <v>-0.036112182350763078</v>
       </c>
       <c r="B18" s="0">
-        <v>0.036097007275571968</v>
+        <v>0.036097010346004765</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027097007434013776</v>
+        <v>-0.027097010497110219</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027014076172123591</v>
+        <v>0.027014136860057825</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018014076332063311</v>
+        <v>-0.018014137012423603</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004320162592791</v>
+        <v>0.018004316873055259</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090043203227629931</v>
+        <v>-0.0090043170255880156</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999998396432801</v>
+        <v>0.0089999998473393461</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093934614548313533</v>
+        <v>-0.093933939621917872</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093625531124683192</v>
+        <v>0.093625014765351011</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084625531285039024</v>
+        <v>-0.084625014918114694</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084125137006761719</v>
+        <v>0.084125049656342377</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042125137248618216</v>
+        <v>-0.042125049871888365</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999756765938</v>
+        <v>0.041999999783368658</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.088331090480451735</v>
+        <v>-0.075926252342075173</v>
       </c>
       <c r="B25" s="0">
-        <v>0.088217894291943821</v>
+        <v>0.075851203569222037</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.08221789445261507</v>
+        <v>-0.069851203722723909</v>
       </c>
       <c r="B26" s="0">
-        <v>0.08207981057131164</v>
+        <v>0.069761675117614885</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.074815519653067319</v>
+        <v>-0.063761675271649665</v>
       </c>
       <c r="B27" s="0">
-        <v>0.074366845137509241</v>
+        <v>0.063480645596647456</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.068366845302341162</v>
+        <v>-0.057480645752994164</v>
       </c>
       <c r="B28" s="0">
-        <v>0.06807806114613868</v>
+        <v>0.057305495039933874</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.056078061327516693</v>
+        <v>-0.068749346371243192</v>
       </c>
       <c r="B29" s="0">
-        <v>0.055958180436455507</v>
+        <v>0.068588859321820905</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.035958180638061776</v>
+        <v>-0.048588859506342619</v>
       </c>
       <c r="B30" s="0">
-        <v>0.035765318718728789</v>
+        <v>0.048257760264846183</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027019916603050476</v>
+        <v>-0.027019806631740195</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000958899483507</v>
+        <v>0.027001013461454448</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060009591052558875</v>
+        <v>-0.0060010136497430366</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999998299113955</v>
+        <v>0.0059999998390924958</v>
       </c>
     </row>
   </sheetData>
